--- a/All Major/Feature Extraction/Fall/FR/GoodMajor.xlsx
+++ b/All Major/Feature Extraction/Fall/FR/GoodMajor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>col</t>
   </si>
@@ -53,76 +53,22 @@
     <t>ATHT-BS</t>
   </si>
   <si>
-    <t>ELED-BS</t>
+    <t>NURS-BSN</t>
+  </si>
+  <si>
+    <t>MGMT-BA</t>
   </si>
   <si>
     <t>PSYC-BA</t>
   </si>
   <si>
-    <t>COMM-BA</t>
+    <t>ECED-BS</t>
+  </si>
+  <si>
+    <t>MRKT-BA</t>
   </si>
   <si>
     <t>ACCT-BS</t>
-  </si>
-  <si>
-    <t>SW-BA</t>
-  </si>
-  <si>
-    <t>ECED-BS</t>
-  </si>
-  <si>
-    <t>CHEM-BS</t>
-  </si>
-  <si>
-    <t>ART-BA</t>
-  </si>
-  <si>
-    <t>HSM-BS</t>
-  </si>
-  <si>
-    <t>IT-AAS</t>
-  </si>
-  <si>
-    <t>ENGL-BA</t>
-  </si>
-  <si>
-    <t>SPTM-BS</t>
-  </si>
-  <si>
-    <t>ENGE-BA</t>
-  </si>
-  <si>
-    <t>FCS-BS</t>
-  </si>
-  <si>
-    <t>ELSP-BS</t>
-  </si>
-  <si>
-    <t>NURS-BSN</t>
-  </si>
-  <si>
-    <t>MGMT-BA</t>
-  </si>
-  <si>
-    <t>MRKT-BA</t>
-  </si>
-  <si>
-    <t>IT-BS</t>
-  </si>
-  <si>
-    <t>FIN-BS</t>
-  </si>
-  <si>
-    <t>CSD-BS</t>
-  </si>
-  <si>
-    <t>HIST-BA</t>
-  </si>
-  <si>
-    <t>OSHE-BS</t>
-  </si>
-  <si>
-    <t>HPE-BS</t>
   </si>
 </sst>
 </file>
@@ -471,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,171 +541,6 @@
       </c>
       <c r="C11" t="n">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>38</v>
@@ -816,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>32</v>
@@ -849,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>29</v>
@@ -860,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -882,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>22</v>
@@ -893,175 +674,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
